--- a/DiemBFT.xlsx
+++ b/DiemBFT.xlsx
@@ -2633,7 +2633,7 @@
         <v>1.0</v>
       </c>
       <c r="C64" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="4"/>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="C79" s="5">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D79" s="5">
         <f t="shared" si="1"/>
